--- a/data_year/zb/人口/人口抽样调查样本数据/户数、户人口及户规模(人口抽样调查).xlsx
+++ b/data_year/zb/人口/人口抽样调查样本数据/户数、户人口及户规模(人口抽样调查).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,579 +483,341 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1237970</v>
+        <v>1088965</v>
       </c>
       <c r="C2" t="n">
-        <v>607696</v>
+        <v>535895</v>
       </c>
       <c r="D2" t="n">
-        <v>365083</v>
+        <v>360447</v>
       </c>
       <c r="E2" t="n">
-        <v>630274</v>
+        <v>553070</v>
       </c>
       <c r="F2" t="n">
-        <v>369173</v>
+        <v>371977</v>
       </c>
       <c r="G2" t="n">
-        <v>20981</v>
+        <v>56244</v>
       </c>
       <c r="H2" t="n">
-        <v>8501</v>
+        <v>22275</v>
       </c>
       <c r="I2" t="n">
-        <v>4090</v>
+        <v>11530</v>
       </c>
       <c r="J2" t="n">
-        <v>12480</v>
+        <v>33969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1242389</v>
+        <v>1077355</v>
       </c>
       <c r="C3" t="n">
-        <v>610126</v>
+        <v>530155</v>
       </c>
       <c r="D3" t="n">
-        <v>367550</v>
+        <v>356954</v>
       </c>
       <c r="E3" t="n">
-        <v>632263</v>
+        <v>547201</v>
       </c>
       <c r="F3" t="n">
-        <v>370919</v>
+        <v>367304</v>
       </c>
       <c r="G3" t="n">
-        <v>18109</v>
+        <v>47306</v>
       </c>
       <c r="H3" t="n">
-        <v>6972</v>
+        <v>18153</v>
       </c>
       <c r="I3" t="n">
-        <v>3369</v>
+        <v>10350</v>
       </c>
       <c r="J3" t="n">
-        <v>11137</v>
+        <v>29153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1236207</v>
+        <v>1077642</v>
       </c>
       <c r="C4" t="n">
-        <v>608170</v>
+        <v>527634</v>
       </c>
       <c r="D4" t="n">
-        <v>367617</v>
+        <v>362031</v>
       </c>
       <c r="E4" t="n">
-        <v>628037</v>
+        <v>550008</v>
       </c>
       <c r="F4" t="n">
-        <v>370785</v>
+        <v>371789</v>
       </c>
       <c r="G4" t="n">
-        <v>16858</v>
+        <v>40791</v>
       </c>
       <c r="H4" t="n">
-        <v>7728</v>
+        <v>17371</v>
       </c>
       <c r="I4" t="n">
-        <v>3168</v>
+        <v>9758</v>
       </c>
       <c r="J4" t="n">
-        <v>9130</v>
+        <v>23420</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16570406</v>
+        <v>1084379</v>
       </c>
       <c r="C5" t="n">
-        <v>8216300</v>
+        <v>530994</v>
       </c>
       <c r="D5" t="n">
-        <v>5286554</v>
+        <v>365416</v>
       </c>
       <c r="E5" t="n">
-        <v>8354106</v>
+        <v>553385</v>
       </c>
       <c r="F5" t="n">
-        <v>5391013</v>
+        <v>375069</v>
       </c>
       <c r="G5" t="n">
-        <v>415360</v>
+        <v>40023</v>
       </c>
       <c r="H5" t="n">
-        <v>184584</v>
+        <v>17397</v>
       </c>
       <c r="I5" t="n">
-        <v>104459</v>
+        <v>9653</v>
       </c>
       <c r="J5" t="n">
-        <v>230777</v>
+        <v>22626</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1168454</v>
+        <v>19729405</v>
       </c>
       <c r="C6" t="n">
-        <v>577667</v>
+        <v>9740054</v>
       </c>
       <c r="D6" t="n">
-        <v>368180</v>
+        <v>6355790</v>
       </c>
       <c r="E6" t="n">
-        <v>590787</v>
+        <v>9989351</v>
       </c>
       <c r="F6" t="n">
-        <v>374053</v>
+        <v>6715351</v>
       </c>
       <c r="G6" t="n">
-        <v>24212</v>
+        <v>1582836</v>
       </c>
       <c r="H6" t="n">
-        <v>10696</v>
+        <v>655141</v>
       </c>
       <c r="I6" t="n">
-        <v>5873</v>
+        <v>359561</v>
       </c>
       <c r="J6" t="n">
-        <v>13516</v>
+        <v>927695</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1164248</v>
+        <v>1132138</v>
       </c>
       <c r="C7" t="n">
-        <v>574761</v>
+        <v>553506</v>
       </c>
       <c r="D7" t="n">
-        <v>367260</v>
+        <v>364431</v>
       </c>
       <c r="E7" t="n">
-        <v>589487</v>
+        <v>578632</v>
       </c>
       <c r="F7" t="n">
-        <v>373387</v>
+        <v>371070</v>
       </c>
       <c r="G7" t="n">
-        <v>24491</v>
+        <v>25881</v>
       </c>
       <c r="H7" t="n">
-        <v>11239</v>
+        <v>11426</v>
       </c>
       <c r="I7" t="n">
-        <v>6127</v>
+        <v>6638</v>
       </c>
       <c r="J7" t="n">
-        <v>13252</v>
+        <v>14455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1155531</v>
+        <v>1114610</v>
       </c>
       <c r="C8" t="n">
-        <v>570440</v>
+        <v>544573</v>
       </c>
       <c r="D8" t="n">
-        <v>365130</v>
+        <v>367273</v>
       </c>
       <c r="E8" t="n">
-        <v>585091</v>
+        <v>570037</v>
       </c>
       <c r="F8" t="n">
-        <v>371370</v>
+        <v>375187</v>
       </c>
       <c r="G8" t="n">
-        <v>22990</v>
+        <v>30636</v>
       </c>
       <c r="H8" t="n">
-        <v>9742</v>
+        <v>14600</v>
       </c>
       <c r="I8" t="n">
-        <v>6240</v>
+        <v>7915</v>
       </c>
       <c r="J8" t="n">
-        <v>13249</v>
+        <v>16035</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1145040</v>
+        <v>1113633</v>
       </c>
       <c r="C9" t="n">
-        <v>563936</v>
+        <v>547002</v>
       </c>
       <c r="D9" t="n">
-        <v>363948</v>
+        <v>371225</v>
       </c>
       <c r="E9" t="n">
-        <v>581104</v>
+        <v>566631</v>
       </c>
       <c r="F9" t="n">
-        <v>369519</v>
+        <v>378643</v>
       </c>
       <c r="G9" t="n">
-        <v>19946</v>
+        <v>31015</v>
       </c>
       <c r="H9" t="n">
-        <v>9179</v>
+        <v>12347</v>
       </c>
       <c r="I9" t="n">
-        <v>5571</v>
+        <v>7419</v>
       </c>
       <c r="J9" t="n">
-        <v>10767</v>
+        <v>18668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1088965</v>
+        <v>1062849</v>
       </c>
       <c r="C10" t="n">
-        <v>535895</v>
+        <v>523006</v>
       </c>
       <c r="D10" t="n">
-        <v>360447</v>
+        <v>363974</v>
       </c>
       <c r="E10" t="n">
-        <v>553070</v>
+        <v>539844</v>
       </c>
       <c r="F10" t="n">
-        <v>371977</v>
+        <v>371292</v>
       </c>
       <c r="G10" t="n">
-        <v>56244</v>
+        <v>29027</v>
       </c>
       <c r="H10" t="n">
-        <v>22275</v>
+        <v>11036</v>
       </c>
       <c r="I10" t="n">
-        <v>11530</v>
+        <v>7318</v>
       </c>
       <c r="J10" t="n">
-        <v>33969</v>
+        <v>17991</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1077355</v>
+        <v>1412402</v>
       </c>
       <c r="C11" t="n">
-        <v>530155</v>
+        <v>694670</v>
       </c>
       <c r="D11" t="n">
-        <v>356954</v>
+        <v>510132</v>
       </c>
       <c r="E11" t="n">
-        <v>547201</v>
+        <v>717732</v>
       </c>
       <c r="F11" t="n">
-        <v>367304</v>
+        <v>528365</v>
       </c>
       <c r="G11" t="n">
-        <v>47306</v>
+        <v>81652</v>
       </c>
       <c r="H11" t="n">
-        <v>18153</v>
+        <v>35542</v>
       </c>
       <c r="I11" t="n">
-        <v>10350</v>
+        <v>18233</v>
       </c>
       <c r="J11" t="n">
-        <v>29153</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1077642</v>
-      </c>
-      <c r="C12" t="n">
-        <v>527634</v>
-      </c>
-      <c r="D12" t="n">
-        <v>362031</v>
-      </c>
-      <c r="E12" t="n">
-        <v>550008</v>
-      </c>
-      <c r="F12" t="n">
-        <v>371789</v>
-      </c>
-      <c r="G12" t="n">
-        <v>40791</v>
-      </c>
-      <c r="H12" t="n">
-        <v>17371</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9758</v>
-      </c>
-      <c r="J12" t="n">
-        <v>23420</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1084379</v>
-      </c>
-      <c r="C13" t="n">
-        <v>530994</v>
-      </c>
-      <c r="D13" t="n">
-        <v>365416</v>
-      </c>
-      <c r="E13" t="n">
-        <v>553385</v>
-      </c>
-      <c r="F13" t="n">
-        <v>375069</v>
-      </c>
-      <c r="G13" t="n">
-        <v>40023</v>
-      </c>
-      <c r="H13" t="n">
-        <v>17397</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9653</v>
-      </c>
-      <c r="J13" t="n">
-        <v>22626</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>19729405</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9740054</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6355790</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9989351</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6715351</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1582836</v>
-      </c>
-      <c r="H14" t="n">
-        <v>655141</v>
-      </c>
-      <c r="I14" t="n">
-        <v>359561</v>
-      </c>
-      <c r="J14" t="n">
-        <v>927695</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1132138</v>
-      </c>
-      <c r="C15" t="n">
-        <v>553506</v>
-      </c>
-      <c r="D15" t="n">
-        <v>364431</v>
-      </c>
-      <c r="E15" t="n">
-        <v>578632</v>
-      </c>
-      <c r="F15" t="n">
-        <v>371070</v>
-      </c>
-      <c r="G15" t="n">
-        <v>25881</v>
-      </c>
-      <c r="H15" t="n">
-        <v>11426</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6638</v>
-      </c>
-      <c r="J15" t="n">
-        <v>14455</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1114610</v>
-      </c>
-      <c r="C16" t="n">
-        <v>544573</v>
-      </c>
-      <c r="D16" t="n">
-        <v>367273</v>
-      </c>
-      <c r="E16" t="n">
-        <v>570037</v>
-      </c>
-      <c r="F16" t="n">
-        <v>375187</v>
-      </c>
-      <c r="G16" t="n">
-        <v>30636</v>
-      </c>
-      <c r="H16" t="n">
-        <v>14600</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7915</v>
-      </c>
-      <c r="J16" t="n">
-        <v>16035</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1113633</v>
-      </c>
-      <c r="C17" t="n">
-        <v>547002</v>
-      </c>
-      <c r="D17" t="n">
-        <v>371225</v>
-      </c>
-      <c r="E17" t="n">
-        <v>566631</v>
-      </c>
-      <c r="F17" t="n">
-        <v>378643</v>
-      </c>
-      <c r="G17" t="n">
-        <v>31015</v>
-      </c>
-      <c r="H17" t="n">
-        <v>12347</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7419</v>
-      </c>
-      <c r="J17" t="n">
-        <v>18668</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1062849</v>
-      </c>
-      <c r="C18" t="n">
-        <v>523006</v>
-      </c>
-      <c r="D18" t="n">
-        <v>363974</v>
-      </c>
-      <c r="E18" t="n">
-        <v>539844</v>
-      </c>
-      <c r="F18" t="n">
-        <v>371292</v>
-      </c>
-      <c r="G18" t="n">
-        <v>29027</v>
-      </c>
-      <c r="H18" t="n">
-        <v>11036</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7318</v>
-      </c>
-      <c r="J18" t="n">
-        <v>17991</v>
+        <v>46110</v>
       </c>
     </row>
   </sheetData>
